--- a/Dokumente/Meilenstein Implementierung/Zeiterfassung_Gesamt.xlsx
+++ b/Dokumente/Meilenstein Implementierung/Zeiterfassung_Gesamt.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anwender\Documents\GitHub\258321_DKE_PR\Dokumente\Meilenstein Implementierung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ateuc\Documents\GitHub\258321_DKE_PR\Dokumente\Meilenstein Implementierung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF1470B1-BCCC-4277-8B5C-D538B93829EE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B70E47CC-C438-4053-8D4A-C5C5F4DF5334}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20010" yWindow="0" windowWidth="28800" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20010" yWindow="0" windowWidth="28800" windowHeight="12360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeiterfassung_Gesamt" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="88">
   <si>
     <t xml:space="preserve">Aistleithner </t>
   </si>
@@ -270,9 +270,6 @@
     <t xml:space="preserve">Präsentation </t>
   </si>
   <si>
-    <t>Fedora 28 VM aufsetzen</t>
-  </si>
-  <si>
     <t xml:space="preserve">Update Datenspeicherung </t>
   </si>
   <si>
@@ -295,6 +292,12 @@
   </si>
   <si>
     <t>Meilenstein Implementierung Zusammenführung und Korrekturen</t>
+  </si>
+  <si>
+    <t>Dokumenation</t>
+  </si>
+  <si>
+    <t>Fedora 28 VM aufsetzen und verwenden</t>
   </si>
 </sst>
 </file>
@@ -995,7 +998,7 @@
             <c:numRef>
               <c:f>Zeiterfassung_Gesamt!$A$4:$D$4</c:f>
               <c:numCache>
-                <c:formatCode>_-* #\ ##0.00\ _€_-;\-* #\ ##0.00\ _€_-;_-* "-"??\ _€_-;_-@_-</c:formatCode>
+                <c:formatCode>_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* "-"??\ _€_-;_-@_-</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>131.5</c:v>
@@ -1004,7 +1007,7 @@
                   <c:v>132.75</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>125.25</c:v>
+                  <c:v>129.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>135.75</c:v>
@@ -1254,7 +1257,7 @@
             <c:numRef>
               <c:f>Zeiterfassung_Gesamt!$F$26:$F$43</c:f>
               <c:numCache>
-                <c:formatCode>_-* #\ ##0.00\ _€_-;\-* #\ ##0.00\ _€_-;_-* "-"??\ _€_-;_-@_-</c:formatCode>
+                <c:formatCode>_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* "-"??\ _€_-;_-@_-</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>18</c:v>
@@ -1308,7 +1311,7 @@
                   <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>55.5</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1514,7 +1517,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="_-* #\ ##0.00\ _€_-;\-* #\ ##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-" sourceLinked="1"/>
+        <c:numFmt formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3168,7 +3171,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:K45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
@@ -3226,7 +3229,7 @@
       </c>
       <c r="C4" s="1">
         <f t="shared" si="0"/>
-        <v>125.25</v>
+        <v>129.75</v>
       </c>
       <c r="D4" s="1">
         <f t="shared" si="0"/>
@@ -3763,7 +3766,7 @@
       </c>
       <c r="D43" s="3">
         <f>SUMIF(Tabelle35[KW],Zeiterfassung_Gesamt!A43,Tabelle35[Dauer])</f>
-        <v>17.5</v>
+        <v>22</v>
       </c>
       <c r="E43" s="3">
         <f>SUMIF(Tomic!H23:H68,Zeiterfassung_Gesamt!A43,Tomic!G23:G68)</f>
@@ -3771,7 +3774,7 @@
       </c>
       <c r="F43" s="3">
         <f t="shared" si="2"/>
-        <v>55.5</v>
+        <v>60</v>
       </c>
       <c r="J43" s="12"/>
       <c r="K43" s="14"/>
@@ -3790,7 +3793,7 @@
       </c>
       <c r="D44" s="4">
         <f t="shared" si="3"/>
-        <v>125.25</v>
+        <v>129.75</v>
       </c>
       <c r="E44" s="4">
         <f t="shared" si="3"/>
@@ -3798,7 +3801,7 @@
       </c>
       <c r="F44" s="4">
         <f>SUM(F26:F43)</f>
-        <v>525.25</v>
+        <v>529.75</v>
       </c>
       <c r="J44" s="12"/>
       <c r="K44" s="14"/>
@@ -3823,7 +3826,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:H244"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
       <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
@@ -5032,7 +5035,7 @@
         <v>49</v>
       </c>
       <c r="C53" s="30" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D53" s="27">
         <v>43132</v>
@@ -5057,7 +5060,7 @@
         <v>55</v>
       </c>
       <c r="C54" s="30" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D54" s="32">
         <v>43133</v>
@@ -5082,7 +5085,7 @@
         <v>30</v>
       </c>
       <c r="C55" s="30" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D55" s="27">
         <v>43133</v>
@@ -5107,7 +5110,7 @@
         <v>30</v>
       </c>
       <c r="C56" s="30" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D56" s="27">
         <v>43134</v>
@@ -7190,7 +7193,7 @@
         <v>26</v>
       </c>
       <c r="C42" s="30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D42" s="27">
         <v>43498</v>
@@ -8969,8 +8972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:H237"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10003,7 +10006,7 @@
         <v>26</v>
       </c>
       <c r="C46" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="D46" s="46">
         <v>43493</v>
@@ -10012,11 +10015,11 @@
         <v>0.57291666666666663</v>
       </c>
       <c r="F46" s="28">
-        <v>0.66666666666666663</v>
+        <v>0.78125</v>
       </c>
       <c r="G46">
         <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
-        <v>2.25</v>
+        <v>5</v>
       </c>
       <c r="H46">
         <f>WEEKNUM(Tabelle35[[#This Row],[Datum]],2)</f>
@@ -10028,7 +10031,7 @@
         <v>55</v>
       </c>
       <c r="C47" s="30" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D47" s="27">
         <v>43497</v>
@@ -10053,7 +10056,7 @@
         <v>55</v>
       </c>
       <c r="C48" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D48" s="46">
         <v>43497</v>
@@ -10078,7 +10081,7 @@
         <v>30</v>
       </c>
       <c r="C49" s="30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D49" s="27">
         <v>43498</v>
@@ -10103,16 +10106,16 @@
         <v>30</v>
       </c>
       <c r="C50" s="30" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D50" s="27">
         <v>43499</v>
       </c>
       <c r="E50" s="28">
-        <v>0.58333333333333337</v>
+        <v>0.5</v>
       </c>
       <c r="F50" s="28">
-        <v>0.75</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="G50" s="31">
         <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
@@ -10124,18 +10127,28 @@
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B51" s="30"/>
-      <c r="C51" s="30"/>
-      <c r="D51" s="27"/>
-      <c r="E51" s="28"/>
-      <c r="F51" s="28"/>
+      <c r="B51" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="C51" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="D51" s="27">
+        <v>43499</v>
+      </c>
+      <c r="E51" s="28">
+        <v>0.6875</v>
+      </c>
+      <c r="F51" s="28">
+        <v>0.76041666666666663</v>
+      </c>
       <c r="G51">
         <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="H51">
         <f>WEEKNUM(Tabelle35[[#This Row],[Datum]],2)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -10499,7 +10512,7 @@
       <c r="F74" s="44"/>
       <c r="G74" s="53">
         <f>SUM(G7:G73)</f>
-        <v>125.25</v>
+        <v>129.75</v>
       </c>
       <c r="H74" s="54"/>
     </row>
@@ -12930,7 +12943,7 @@
         <v>26</v>
       </c>
       <c r="C44" s="30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D44" s="27">
         <v>43498</v>

--- a/Dokumente/Meilenstein Implementierung/Zeiterfassung_Gesamt.xlsx
+++ b/Dokumente/Meilenstein Implementierung/Zeiterfassung_Gesamt.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anwender\Documents\GitHub\258321_DKE_PR\Zeiterfassung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ateuc\Documents\GitHub\258321_DKE_PR\Dokumente\Meilenstein Implementierung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74ABA1B7-B8E6-47A1-9991-BE429E9575C5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ECC64FB-F33D-4856-B7FB-2ED7EB533187}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20010" yWindow="0" windowWidth="28800" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20010" yWindow="0" windowWidth="28800" windowHeight="12360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeiterfassung_Gesamt" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="87">
   <si>
     <t xml:space="preserve">Aistleithner </t>
   </si>
@@ -270,9 +270,6 @@
     <t xml:space="preserve">Präsentation </t>
   </si>
   <si>
-    <t>Fedora 28 VM aufsetzen</t>
-  </si>
-  <si>
     <t xml:space="preserve">Update Datenspeicherung </t>
   </si>
   <si>
@@ -295,6 +292,9 @@
   </si>
   <si>
     <t>Meilenstein Implementierung Zusammenführung und Korrekturen</t>
+  </si>
+  <si>
+    <t>Fedora 28 VM aufsetzen und verwenden</t>
   </si>
 </sst>
 </file>
@@ -995,7 +995,7 @@
             <c:numRef>
               <c:f>Zeiterfassung_Gesamt!$A$4:$D$4</c:f>
               <c:numCache>
-                <c:formatCode>_-* #\ ##0.00\ _€_-;\-* #\ ##0.00\ _€_-;_-* "-"??\ _€_-;_-@_-</c:formatCode>
+                <c:formatCode>_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* "-"??\ _€_-;_-@_-</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>131.5</c:v>
@@ -1004,7 +1004,7 @@
                   <c:v>132.75</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>125.25</c:v>
+                  <c:v>130.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>135.75</c:v>
@@ -1254,7 +1254,7 @@
             <c:numRef>
               <c:f>Zeiterfassung_Gesamt!$F$26:$F$43</c:f>
               <c:numCache>
-                <c:formatCode>_-* #\ ##0.00\ _€_-;\-* #\ ##0.00\ _€_-;_-* "-"??\ _€_-;_-@_-</c:formatCode>
+                <c:formatCode>_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* "-"??\ _€_-;_-@_-</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>18</c:v>
@@ -1308,7 +1308,7 @@
                   <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>55.5</c:v>
+                  <c:v>60.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1514,7 +1514,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="_-* #\ ##0.00\ _€_-;\-* #\ ##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-" sourceLinked="1"/>
+        <c:numFmt formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3168,7 +3168,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:K45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
@@ -3226,7 +3226,7 @@
       </c>
       <c r="C4" s="1">
         <f t="shared" si="0"/>
-        <v>125.25</v>
+        <v>130.5</v>
       </c>
       <c r="D4" s="1">
         <f t="shared" si="0"/>
@@ -3763,7 +3763,7 @@
       </c>
       <c r="D43" s="3">
         <f>SUMIF(Tabelle35[KW],Zeiterfassung_Gesamt!A43,Tabelle35[Dauer])</f>
-        <v>17.5</v>
+        <v>22.75</v>
       </c>
       <c r="E43" s="3">
         <f>SUMIF(Tomic!H23:H68,Zeiterfassung_Gesamt!A43,Tomic!G23:G68)</f>
@@ -3771,7 +3771,7 @@
       </c>
       <c r="F43" s="3">
         <f t="shared" si="2"/>
-        <v>55.5</v>
+        <v>60.75</v>
       </c>
       <c r="J43" s="12"/>
       <c r="K43" s="14"/>
@@ -3790,7 +3790,7 @@
       </c>
       <c r="D44" s="4">
         <f t="shared" si="3"/>
-        <v>125.25</v>
+        <v>130.5</v>
       </c>
       <c r="E44" s="4">
         <f t="shared" si="3"/>
@@ -3798,7 +3798,7 @@
       </c>
       <c r="F44" s="4">
         <f>SUM(F26:F43)</f>
-        <v>525.25</v>
+        <v>530.5</v>
       </c>
       <c r="J44" s="12"/>
       <c r="K44" s="14"/>
@@ -3823,7 +3823,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:H244"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
       <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
@@ -5032,7 +5032,7 @@
         <v>49</v>
       </c>
       <c r="C53" s="30" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D53" s="27">
         <v>43132</v>
@@ -5057,7 +5057,7 @@
         <v>55</v>
       </c>
       <c r="C54" s="30" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D54" s="32">
         <v>43133</v>
@@ -5082,7 +5082,7 @@
         <v>30</v>
       </c>
       <c r="C55" s="30" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D55" s="27">
         <v>43133</v>
@@ -5107,7 +5107,7 @@
         <v>30</v>
       </c>
       <c r="C56" s="30" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D56" s="27">
         <v>43134</v>
@@ -7190,7 +7190,7 @@
         <v>26</v>
       </c>
       <c r="C42" s="30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D42" s="27">
         <v>43498</v>
@@ -8969,8 +8969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:H237"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10003,7 +10003,7 @@
         <v>26</v>
       </c>
       <c r="C46" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="D46" s="46">
         <v>43493</v>
@@ -10012,11 +10012,11 @@
         <v>0.57291666666666663</v>
       </c>
       <c r="F46" s="28">
-        <v>0.66666666666666663</v>
+        <v>0.78125</v>
       </c>
       <c r="G46">
         <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
-        <v>2.25</v>
+        <v>5</v>
       </c>
       <c r="H46">
         <f>WEEKNUM(Tabelle35[[#This Row],[Datum]],2)</f>
@@ -10028,7 +10028,7 @@
         <v>55</v>
       </c>
       <c r="C47" s="30" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D47" s="27">
         <v>43497</v>
@@ -10053,7 +10053,7 @@
         <v>55</v>
       </c>
       <c r="C48" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D48" s="46">
         <v>43497</v>
@@ -10078,7 +10078,7 @@
         <v>30</v>
       </c>
       <c r="C49" s="30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D49" s="27">
         <v>43498</v>
@@ -10103,16 +10103,16 @@
         <v>30</v>
       </c>
       <c r="C50" s="30" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D50" s="27">
         <v>43499</v>
       </c>
       <c r="E50" s="28">
-        <v>0.58333333333333337</v>
+        <v>0.5</v>
       </c>
       <c r="F50" s="28">
-        <v>0.75</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="G50" s="31">
         <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
@@ -10124,18 +10124,28 @@
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B51" s="30"/>
-      <c r="C51" s="30"/>
-      <c r="D51" s="27"/>
-      <c r="E51" s="28"/>
-      <c r="F51" s="28"/>
+      <c r="B51" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C51" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="D51" s="27">
+        <v>43499</v>
+      </c>
+      <c r="E51" s="28">
+        <v>0.6875</v>
+      </c>
+      <c r="F51" s="28">
+        <v>0.79166666666666663</v>
+      </c>
       <c r="G51">
         <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="H51">
         <f>WEEKNUM(Tabelle35[[#This Row],[Datum]],2)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -10499,7 +10509,7 @@
       <c r="F74" s="44"/>
       <c r="G74" s="53">
         <f>SUM(G7:G73)</f>
-        <v>125.25</v>
+        <v>130.5</v>
       </c>
       <c r="H74" s="54"/>
     </row>
@@ -12930,7 +12940,7 @@
         <v>26</v>
       </c>
       <c r="C44" s="30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D44" s="27">
         <v>43498</v>

--- a/Dokumente/Meilenstein Implementierung/Zeiterfassung_Gesamt.xlsx
+++ b/Dokumente/Meilenstein Implementierung/Zeiterfassung_Gesamt.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ateuc\Documents\GitHub\258321_DKE_PR\Dokumente\Meilenstein Implementierung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anwender\Documents\GitHub\258321_DKE_PR\Dokumente\Meilenstein Implementierung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ECC64FB-F33D-4856-B7FB-2ED7EB533187}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42EF9E09-5FA3-4565-A2CB-664CFB4236E1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20010" yWindow="0" windowWidth="28800" windowHeight="12360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20010" yWindow="0" windowWidth="28800" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeiterfassung_Gesamt" sheetId="1" r:id="rId1"/>
@@ -995,7 +995,7 @@
             <c:numRef>
               <c:f>Zeiterfassung_Gesamt!$A$4:$D$4</c:f>
               <c:numCache>
-                <c:formatCode>_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* "-"??\ _€_-;_-@_-</c:formatCode>
+                <c:formatCode>_-* #\ ##0.00\ _€_-;\-* #\ ##0.00\ _€_-;_-* "-"??\ _€_-;_-@_-</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>131.5</c:v>
@@ -1254,7 +1254,7 @@
             <c:numRef>
               <c:f>Zeiterfassung_Gesamt!$F$26:$F$43</c:f>
               <c:numCache>
-                <c:formatCode>_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* "-"??\ _€_-;_-@_-</c:formatCode>
+                <c:formatCode>_-* #\ ##0.00\ _€_-;\-* #\ ##0.00\ _€_-;_-* "-"??\ _€_-;_-@_-</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>18</c:v>
@@ -1514,7 +1514,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-" sourceLinked="1"/>
+        <c:numFmt formatCode="_-* #\ ##0.00\ _€_-;\-* #\ ##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3168,7 +3168,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:K45"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
@@ -3823,8 +3823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:H244"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6257,7 +6257,7 @@
   <dimension ref="A2:H232"/>
   <sheetViews>
     <sheetView topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8969,8 +8969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:H237"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G51" sqref="G51"/>
+    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
